--- a/grupos/6BLCM - Estadisticos 20202.xlsx
+++ b/grupos/6BLCM - Estadisticos 20202.xlsx
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2396,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -2858,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q28">
         <v>8</v>

--- a/grupos/6BLCM - Estadisticos 20202.xlsx
+++ b/grupos/6BLCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
   <si>
     <t>Materia</t>
   </si>
@@ -188,19 +188,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Velasco Sánchez David</t>
+  </si>
+  <si>
+    <t>Ángel Martínez Gerson Hermenegildo</t>
+  </si>
+  <si>
+    <t>Flores González Ángel</t>
+  </si>
+  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
-    <t>Velasco Sánchez David</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Gerson Hermenegildo</t>
-  </si>
-  <si>
     <t>Rivera Cruz Ezequiel</t>
-  </si>
-  <si>
-    <t>Flores González Ángel</t>
   </si>
   <si>
     <t>NC</t>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3723,16 +3723,16 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>62.86</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="G2">
-        <v>37.14</v>
+        <v>8.57</v>
       </c>
       <c r="H2">
         <v>6.8</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3755,19 +3755,19 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>65.70999999999999</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="G3">
-        <v>34.29</v>
+        <v>8.57</v>
       </c>
       <c r="H3">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3778,28 +3778,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>35</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>65.70999999999999</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="G4">
-        <v>34.29</v>
+        <v>8.57</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3819,19 +3819,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>65.70999999999999</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="G5">
-        <v>34.29</v>
+        <v>5.71</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3851,19 +3851,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>91.43000000000001</v>
+        <v>97.14</v>
       </c>
       <c r="G6">
-        <v>8.57</v>
+        <v>2.86</v>
       </c>
       <c r="H6">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -3883,16 +3883,16 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>97.14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="H7">
         <v>7.6</v>
@@ -4577,7 +4577,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4607,375 +4607,7 @@
         <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920314</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920320</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920320</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920424</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920424</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920341</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8">
         <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920341</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920342</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920342</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920426</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920426</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920352</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920352</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920329</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920347</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
